--- a/excel2yaml/excel to yaml template.xlsx
+++ b/excel2yaml/excel to yaml template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcve343\PNNL\Documents\projects\tsdat\csv2yaml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcve343\tools\excel2yaml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B36DE9-40A9-4408-A9BF-820EDABB9750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B1CDD5-BA79-429F-92AD-24509E191DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2946" windowWidth="17280" windowHeight="8994" activeTab="2" xr2:uid="{7E905681-4039-4FF9-85DA-8F8BE6699EA4}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{7E905681-4039-4FF9-85DA-8F8BE6699EA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
   <si>
     <t>Dataset Metadata</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Independent Variables</t>
   </si>
   <si>
-    <t>Standardized Name</t>
-  </si>
-  <si>
     <t>Datatype</t>
   </si>
   <si>
@@ -74,181 +71,211 @@
     <t>Valid Maximum Value</t>
   </si>
   <si>
+    <t>Seconds since 1970-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>%Y-%m-%d %H:%M:%S</t>
+  </si>
+  <si>
+    <t>datetime64[ms]</t>
+  </si>
+  <si>
+    <t>Dependent Variables</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Wind Speed</t>
+  </si>
+  <si>
+    <t>Wind Speed (m/s)</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Wind Direction</t>
+  </si>
+  <si>
+    <t>Wind Direction (deg)</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>Vertical Wind Speed</t>
+  </si>
+  <si>
+    <t>Z-wind (m/s)</t>
+  </si>
+  <si>
+    <t>Carrier Noise Ratio</t>
+  </si>
+  <si>
+    <t>CNR (dB)</t>
+  </si>
+  <si>
+    <t>dB</t>
+  </si>
+  <si>
+    <t>Dopper Spectral Broadening</t>
+  </si>
+  <si>
+    <t>Dopp Spect Broad (m/s)</t>
+  </si>
+  <si>
+    <t>Data Availability</t>
+  </si>
+  <si>
+    <t>Data Availiability (%)</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Pressure (hPa)</t>
+  </si>
+  <si>
+    <t>hPa</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>height, time</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Buoy Lidar Pipeline</t>
+  </si>
+  <si>
+    <t>Ingest of lidar data from an AXYS Technologies buoy</t>
+  </si>
+  <si>
+    <t>Morro Bay, CA</t>
+  </si>
+  <si>
+    <t>lidar</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
+    <t>Foo</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Additional metadata -&gt;</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Qualifier</t>
+  </si>
+  <si>
+    <t>Temporal</t>
+  </si>
+  <si>
+    <t>Timestamp (end of interval)</t>
+  </si>
+  <si>
+    <t>kPa</t>
+  </si>
+  <si>
+    <t>buoy_lidar</t>
+  </si>
+  <si>
+    <t>Long Name</t>
+  </si>
+  <si>
+    <t>Percent of good datapoints in 10 minute interval</t>
+  </si>
+  <si>
+    <t>Signal to noise ratio of carrier beam</t>
+  </si>
+  <si>
+    <t>Lidar spectral broadening due to the Doppler effect, caused by a distribution of particle velocity</t>
+  </si>
+  <si>
+    <t>Standard Name</t>
+  </si>
+  <si>
+    <t>wind_speed</t>
+  </si>
+  <si>
+    <t>wind_speed_from_direction</t>
+  </si>
+  <si>
+    <t>upward_air_velocity</t>
+  </si>
+  <si>
+    <t>air_pressure</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>Timezone</t>
+  </si>
+  <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>New Name</t>
+  </si>
+  <si>
+    <t>wind speed</t>
+  </si>
+  <si>
+    <t>wind direction</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>z_wind</t>
+  </si>
+  <si>
+    <t>CNR</t>
+  </si>
+  <si>
+    <t>dopp spec broad</t>
+  </si>
+  <si>
+    <t>availability</t>
+  </si>
+  <si>
     <t>Time</t>
-  </si>
-  <si>
-    <t>Seconds since 1970-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>%Y-%m-%d %H:%M:%S</t>
-  </si>
-  <si>
-    <t>datetime64[ms]</t>
-  </si>
-  <si>
-    <t>Dependent Variables</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>Wind Speed</t>
-  </si>
-  <si>
-    <t>Wind Speed (m/s)</t>
-  </si>
-  <si>
-    <t>m/s</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>Wind Direction</t>
-  </si>
-  <si>
-    <t>Wind Direction (deg)</t>
-  </si>
-  <si>
-    <t>deg</t>
-  </si>
-  <si>
-    <t>Vertical Wind Speed</t>
-  </si>
-  <si>
-    <t>Z-wind (m/s)</t>
-  </si>
-  <si>
-    <t>Carrier Noise Ratio</t>
-  </si>
-  <si>
-    <t>CNR (dB)</t>
-  </si>
-  <si>
-    <t>dB</t>
-  </si>
-  <si>
-    <t>Dopper Spectral Broadening</t>
-  </si>
-  <si>
-    <t>Dopp Spect Broad (m/s)</t>
-  </si>
-  <si>
-    <t>Data Availability</t>
-  </si>
-  <si>
-    <t>Data Availiability (%)</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>Pressure (hPa)</t>
-  </si>
-  <si>
-    <t>hPa</t>
-  </si>
-  <si>
-    <t>Dimensions</t>
-  </si>
-  <si>
-    <t>height, time</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>Buoy Lidar Pipeline</t>
-  </si>
-  <si>
-    <t>Ingest of lidar data from an AXYS Technologies buoy</t>
-  </si>
-  <si>
-    <t>Morro Bay, CA</t>
-  </si>
-  <si>
-    <t>lidar</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>10m</t>
-  </si>
-  <si>
-    <t>Foo</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>Bar</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Additional metadata -&gt;</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Qualifier</t>
-  </si>
-  <si>
-    <t>Temporal</t>
-  </si>
-  <si>
-    <t>Alitutude above sea level</t>
-  </si>
-  <si>
-    <t>Timestamp (end of interval)</t>
-  </si>
-  <si>
-    <t>kPa</t>
-  </si>
-  <si>
-    <t>buoy_lidar</t>
-  </si>
-  <si>
-    <t>Long Name</t>
-  </si>
-  <si>
-    <t>Time (UTC)</t>
-  </si>
-  <si>
-    <t>Average wind direction cover 10 minute interval</t>
-  </si>
-  <si>
-    <t>Average vertical wind speed over 10 minute interval</t>
-  </si>
-  <si>
-    <t>Average horizontal wind speed over 10 minute interval</t>
-  </si>
-  <si>
-    <t>Percent of good datapoints in 10 minute interval</t>
-  </si>
-  <si>
-    <t>Barometric air pressure</t>
-  </si>
-  <si>
-    <t>Signal to noise ratio of carrier beam</t>
-  </si>
-  <si>
-    <t>Lidar spectral broadening due to the Doppler effect, caused by a distribution of particle velocity</t>
   </si>
 </sst>
 </file>
@@ -720,15 +747,15 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -737,48 +764,48 @@
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>45</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>46</v>
       </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -838,90 +865,106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0564412-F11A-451E-9BE1-4FBFA691F3A7}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.47265625" customWidth="1"/>
+    <col min="1" max="1" width="18.41796875" customWidth="1"/>
     <col min="2" max="2" width="22.26171875" customWidth="1"/>
     <col min="3" max="3" width="21.1015625" customWidth="1"/>
     <col min="4" max="4" width="23.83984375" customWidth="1"/>
-    <col min="5" max="5" width="19.7890625" customWidth="1"/>
-    <col min="6" max="6" width="21.3671875" customWidth="1"/>
+    <col min="5" max="6" width="19.7890625" customWidth="1"/>
+    <col min="7" max="7" width="18.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>59</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -931,28 +974,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FD5847-269E-4516-8367-AFCCCB2514D0}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.41796875" customWidth="1"/>
+    <col min="1" max="1" width="16.05078125" customWidth="1"/>
     <col min="2" max="2" width="19.5234375" customWidth="1"/>
     <col min="3" max="3" width="17.83984375" customWidth="1"/>
     <col min="4" max="4" width="16.20703125" customWidth="1"/>
     <col min="5" max="5" width="15.68359375" customWidth="1"/>
-    <col min="6" max="6" width="17.41796875" customWidth="1"/>
-    <col min="7" max="7" width="15.3125" customWidth="1"/>
-    <col min="8" max="8" width="19.26171875" customWidth="1"/>
-    <col min="9" max="9" width="19.89453125" customWidth="1"/>
+    <col min="6" max="6" width="15.62890625" customWidth="1"/>
+    <col min="7" max="7" width="17.41796875" customWidth="1"/>
+    <col min="8" max="8" width="20.734375" customWidth="1"/>
+    <col min="9" max="9" width="27.15625" customWidth="1"/>
+    <col min="10" max="10" width="19.26171875" customWidth="1"/>
+    <col min="11" max="11" width="19.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -962,224 +1007,257 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="G9" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="12" t="s">
+      <c r="H9" t="s">
         <v>67</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9">
+      <c r="I9" s="12"/>
+      <c r="J9">
         <v>900</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>1100</v>
       </c>
     </row>

--- a/excel2yaml/excel to yaml template.xlsx
+++ b/excel2yaml/excel to yaml template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcve343\tools\excel2yaml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B1CDD5-BA79-429F-92AD-24509E191DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147E232B-3A34-4EBC-BCBB-D42FDA59DCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{7E905681-4039-4FF9-85DA-8F8BE6699EA4}"/>
+    <workbookView xWindow="14448" yWindow="4842" windowWidth="15594" windowHeight="10356" firstSheet="1" activeTab="1" xr2:uid="{7E905681-4039-4FF9-85DA-8F8BE6699EA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>%Y-%m-%d %H:%M:%S</t>
   </si>
   <si>
-    <t>datetime64[ms]</t>
-  </si>
-  <si>
     <t>Dependent Variables</t>
   </si>
   <si>
@@ -276,6 +273,9 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>datetime64[ns]</t>
   </si>
 </sst>
 </file>
@@ -720,7 +720,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -747,15 +747,15 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -764,48 +764,48 @@
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>44</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -867,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0564412-F11A-451E-9BE1-4FBFA691F3A7}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -894,7 +894,7 @@
     </row>
     <row r="2" spans="1:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -909,21 +909,21 @@
         <v>5</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -932,39 +932,39 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -977,7 +977,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -997,7 +997,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="2" spans="1:12" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1028,13 +1028,13 @@
         <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
@@ -1049,28 +1049,28 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3">
@@ -1080,28 +1080,28 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4">
@@ -1113,28 +1113,28 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -1142,84 +1142,84 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1230,28 +1230,28 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9">

--- a/excel2yaml/excel to yaml template.xlsx
+++ b/excel2yaml/excel to yaml template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcve343\tools\excel2yaml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcve343\tsdat-tools\excel2yaml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147E232B-3A34-4EBC-BCBB-D42FDA59DCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295AFA8B-2782-4023-8B2A-5EA68A77358A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14448" yWindow="4842" windowWidth="15594" windowHeight="10356" firstSheet="1" activeTab="1" xr2:uid="{7E905681-4039-4FF9-85DA-8F8BE6699EA4}"/>
+    <workbookView xWindow="2166" yWindow="2166" windowWidth="17280" windowHeight="8994" activeTab="2" xr2:uid="{7E905681-4039-4FF9-85DA-8F8BE6699EA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>Dataset Metadata</t>
   </si>
@@ -245,9 +245,6 @@
     <t>Timezone</t>
   </si>
   <si>
-    <t>UTC</t>
-  </si>
-  <si>
     <t>New Name</t>
   </si>
   <si>
@@ -276,6 +273,15 @@
   </si>
   <si>
     <t>datetime64[ns]</t>
+  </si>
+  <si>
+    <t>US/Pacific</t>
+  </si>
+  <si>
+    <t>Additional QC parameters -&gt;</t>
+  </si>
+  <si>
+    <t>valid_delta</t>
   </si>
 </sst>
 </file>
@@ -305,7 +311,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -384,11 +390,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -403,6 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,10 +885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0564412-F11A-451E-9BE1-4FBFA691F3A7}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -876,12 +896,12 @@
     <col min="1" max="1" width="18.41796875" customWidth="1"/>
     <col min="2" max="2" width="22.26171875" customWidth="1"/>
     <col min="3" max="3" width="21.1015625" customWidth="1"/>
-    <col min="4" max="4" width="23.83984375" customWidth="1"/>
-    <col min="5" max="6" width="19.7890625" customWidth="1"/>
-    <col min="7" max="7" width="18.41796875" customWidth="1"/>
+    <col min="4" max="5" width="23.83984375" customWidth="1"/>
+    <col min="6" max="7" width="19.7890625" customWidth="1"/>
+    <col min="8" max="8" width="18.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -891,10 +911,11 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -906,19 +927,20 @@
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -934,17 +956,17 @@
       <c r="E3" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" t="s">
         <v>78</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -957,13 +979,13 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -974,10 +996,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FD5847-269E-4516-8367-AFCCCB2514D0}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -993,9 +1015,10 @@
     <col min="9" max="9" width="27.15625" customWidth="1"/>
     <col min="10" max="10" width="19.26171875" customWidth="1"/>
     <col min="11" max="11" width="19.89453125" customWidth="1"/>
+    <col min="12" max="12" width="10.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1009,11 +1032,13 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L1" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1045,11 +1070,14 @@
       <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -1077,10 +1105,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L3" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -1110,10 +1141,11 @@
       <c r="K4">
         <v>360</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -1139,10 +1171,13 @@
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L5" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -1167,10 +1202,11 @@
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1195,10 +1231,11 @@
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -1227,10 +1264,11 @@
       <c r="K8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
@@ -1260,6 +1298,7 @@
       <c r="K9">
         <v>1100</v>
       </c>
+      <c r="L9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel2yaml/excel to yaml template.xlsx
+++ b/excel2yaml/excel to yaml template.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcve343\tsdat-tools\excel2yaml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/levi260/github/tools/excel2yaml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295AFA8B-2782-4023-8B2A-5EA68A77358A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884500A4-C0DF-7941-BBFE-332B657A16F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2166" yWindow="2166" windowWidth="17280" windowHeight="8994" activeTab="2" xr2:uid="{7E905681-4039-4FF9-85DA-8F8BE6699EA4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{7E905681-4039-4FF9-85DA-8F8BE6699EA4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="4" r:id="rId1"/>
     <sheet name="Independent Variables" sheetId="2" r:id="rId2"/>
     <sheet name="Dependent Variables" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
   <si>
     <t>Dataset Metadata</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Dimensions</t>
   </si>
   <si>
-    <t>height, time</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -179,18 +176,9 @@
     <t>Foo</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>Bar</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Additional metadata -&gt;</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -248,12 +236,6 @@
     <t>New Name</t>
   </si>
   <si>
-    <t>wind speed</t>
-  </si>
-  <si>
-    <t>wind direction</t>
-  </si>
-  <si>
     <t>pressure</t>
   </si>
   <si>
@@ -263,9 +245,6 @@
     <t>CNR</t>
   </si>
   <si>
-    <t>dopp spec broad</t>
-  </si>
-  <si>
     <t>availability</t>
   </si>
   <si>
@@ -282,13 +261,34 @@
   </si>
   <si>
     <t>valid_delta</t>
+  </si>
+  <si>
+    <t>time, height</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Metadata Label</t>
+  </si>
+  <si>
+    <t>required metadata --&gt;</t>
+  </si>
+  <si>
+    <t>additional metadata --&gt;</t>
+  </si>
+  <si>
+    <t>dopp_spec_broad</t>
+  </si>
+  <si>
+    <t>wind_direction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,16 +302,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -373,28 +403,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="double">
         <color indexed="64"/>
       </top>
@@ -407,22 +415,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,9 +472,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -481,7 +512,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -587,7 +618,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -729,154 +760,110 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B0AC46-179C-4CF5-88E0-34546F562875}">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF81FB2-44A0-1B46-88A6-5034DCD6301E}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="239" zoomScaleNormal="239" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="23.578125" customWidth="1"/>
-    <col min="4" max="4" width="21.68359375" customWidth="1"/>
-    <col min="5" max="5" width="16.1015625" customWidth="1"/>
-    <col min="6" max="6" width="11.734375" customWidth="1"/>
-    <col min="7" max="7" width="20.68359375" customWidth="1"/>
-    <col min="8" max="8" width="19.5234375" customWidth="1"/>
-    <col min="11" max="11" width="11.20703125" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="33" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="C9" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -887,22 +874,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0564412-F11A-451E-9BE1-4FBFA691F3A7}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="236" zoomScaleNormal="236" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.41796875" customWidth="1"/>
-    <col min="2" max="2" width="22.26171875" customWidth="1"/>
-    <col min="3" max="3" width="21.1015625" customWidth="1"/>
-    <col min="4" max="5" width="23.83984375" customWidth="1"/>
-    <col min="6" max="7" width="19.7890625" customWidth="1"/>
-    <col min="8" max="8" width="18.41796875" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="5" width="23.83203125" customWidth="1"/>
+    <col min="6" max="7" width="19.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2"/>
@@ -913,39 +900,39 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -954,21 +941,21 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -986,7 +973,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -998,307 +985,308 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FD5847-269E-4516-8367-AFCCCB2514D0}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.05078125" customWidth="1"/>
-    <col min="2" max="2" width="19.5234375" customWidth="1"/>
-    <col min="3" max="3" width="17.83984375" customWidth="1"/>
-    <col min="4" max="4" width="16.20703125" customWidth="1"/>
-    <col min="5" max="5" width="15.68359375" customWidth="1"/>
-    <col min="6" max="6" width="15.62890625" customWidth="1"/>
-    <col min="7" max="7" width="17.41796875" customWidth="1"/>
-    <col min="8" max="8" width="20.734375" customWidth="1"/>
-    <col min="9" max="9" width="27.15625" customWidth="1"/>
-    <col min="10" max="10" width="19.26171875" customWidth="1"/>
-    <col min="11" max="11" width="19.89453125" customWidth="1"/>
-    <col min="12" max="12" width="10.41796875" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="6" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>360</v>
+      </c>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
+      <c r="B7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>100</v>
+      </c>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>360</v>
-      </c>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>100</v>
-      </c>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9">
+      <c r="I9" s="8"/>
+      <c r="J9" s="6">
         <v>900</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="6">
         <v>1100</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
